--- a/tests/data/test_suite.xlsx
+++ b/tests/data/test_suite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ts0001" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
   <si>
     <t xml:space="preserve">ts_uuid:</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">keywords:</t>
   </si>
   <si>
-    <t xml:space="preserve">test, test data, unkown results</t>
+    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">test cases:</t>
@@ -44,10 +44,19 @@
     <t xml:space="preserve">tc0001</t>
   </si>
   <si>
+    <t xml:space="preserve">test data</t>
+  </si>
+  <si>
     <t xml:space="preserve">tc0002</t>
   </si>
   <si>
+    <t xml:space="preserve">test result</t>
+  </si>
+  <si>
     <t xml:space="preserve">asdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potatos</t>
   </si>
   <si>
     <t xml:space="preserve">827asaf</t>
@@ -144,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -165,11 +174,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,16 +218,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,23 +246,23 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -270,23 +270,32 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>8</v>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -311,104 +320,104 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -433,104 +442,104 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>34</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -555,104 +564,104 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>35</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -673,108 +682,108 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>36</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
